--- a/Data/Obj4.xlsx
+++ b/Data/Obj4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26560" windowHeight="10500"/>
+    <workbookView windowWidth="26640" windowHeight="11920"/>
   </bookViews>
   <sheets>
     <sheet name="CoexAna" sheetId="1" r:id="rId1"/>
@@ -654,10 +654,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -682,16 +682,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,8 +727,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -714,14 +758,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,7 +766,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,28 +775,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,6 +789,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -781,42 +804,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -824,6 +824,114 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -833,19 +941,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,49 +965,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,49 +989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,43 +1001,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,24 +1018,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1054,42 +1036,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1118,147 +1068,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1268,7 +1268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,6 +1276,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1602,8 +1605,8 @@
   <sheetPr/>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1657,7 +1660,7 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1680,7 +1683,7 @@
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1726,7 +1729,7 @@
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1749,7 +1752,7 @@
       <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1772,7 +1775,7 @@
       <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1795,7 +1798,7 @@
       <c r="E8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1818,7 +1821,7 @@
       <c r="E9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1841,7 +1844,7 @@
       <c r="E10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1864,7 +1867,7 @@
       <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1887,7 +1890,7 @@
       <c r="E12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1910,7 +1913,7 @@
       <c r="E13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1933,7 +1936,7 @@
       <c r="E14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1956,7 +1959,7 @@
       <c r="E15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>52</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1976,10 +1979,10 @@
       <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1999,7 +2002,7 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -2048,7 +2051,7 @@
       <c r="E19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>63</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -2068,10 +2071,10 @@
       <c r="D20" s="1">
         <v>13</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>67</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -2117,7 +2120,7 @@
       <c r="E22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -2140,7 +2143,7 @@
       <c r="E23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>77</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -2163,7 +2166,7 @@
       <c r="E24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>80</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -2186,7 +2189,7 @@
       <c r="E25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="4" t="s">
         <v>80</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -2209,7 +2212,7 @@
       <c r="E26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="4" t="s">
         <v>86</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2229,10 +2232,10 @@
       <c r="D27" s="1">
         <v>8</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="4" t="s">
         <v>90</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -2255,7 +2258,7 @@
       <c r="E28" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="4" t="s">
         <v>94</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -2275,10 +2278,10 @@
       <c r="D29" s="1">
         <v>10</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="4" t="s">
         <v>98</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -2347,7 +2350,7 @@
       <c r="E32" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="4" t="s">
         <v>108</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -2393,7 +2396,7 @@
       <c r="E34" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="4" t="s">
         <v>116</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -2413,10 +2416,10 @@
       <c r="D35" s="1">
         <v>5</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="4" t="s">
         <v>120</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -2436,10 +2439,10 @@
       <c r="D36" s="1">
         <v>10</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="4" t="s">
         <v>124</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -2462,7 +2465,7 @@
       <c r="E37" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="4" t="s">
         <v>128</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -2482,10 +2485,10 @@
       <c r="D38" s="1">
         <v>7</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="4" t="s">
         <v>132</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -2508,7 +2511,7 @@
       <c r="E39" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="4" t="s">
         <v>136</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -2531,7 +2534,7 @@
       <c r="E40" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="4" t="s">
         <v>140</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -2554,7 +2557,7 @@
       <c r="E41" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="4" t="s">
         <v>144</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -2577,7 +2580,7 @@
       <c r="E42" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="4" t="s">
         <v>148</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -2600,7 +2603,7 @@
       <c r="E43" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="4" t="s">
         <v>152</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -2623,7 +2626,7 @@
       <c r="E44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="4" t="s">
         <v>155</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -2646,15 +2649,16 @@
       <c r="E45" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="4" t="s">
         <v>158</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:1">
+    <row r="46" s="1" customFormat="1" spans="1:2">
       <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:1">
       <c r="A47" s="2"/>
